--- a/docs/Tiempos y Alcance/MapaEntregables.xlsx
+++ b/docs/Tiempos y Alcance/MapaEntregables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facu\Materias Actuales\75.47 - Taller de Desarrollo de Proyectos II\Repositorio\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damian\Documents\UBA\2do Cuat 2013\TallerDesarrollo2\docs\Tiempos y Alcance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -466,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -543,6 +543,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,44 +600,8 @@
     <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2721,7 +2724,7 @@
   <dimension ref="A4:AB37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+      <selection activeCell="E8" sqref="E8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,82 +2741,82 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="37"/>
+      <c r="D4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="30" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="30" t="s">
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="30" t="s">
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="30" t="s">
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="32"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="45"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="33" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="33" t="s">
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="33" t="s">
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="33" t="s">
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="35"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="48"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -2843,115 +2846,115 @@
       <c r="AB6" s="18"/>
     </row>
     <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="21"/>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="21"/>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
       <c r="S7" s="21"/>
-      <c r="T7" s="37" t="s">
+      <c r="T7" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="38"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="31"/>
       <c r="X7" s="21"/>
-      <c r="Y7" s="37" t="s">
+      <c r="Y7" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="38"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="31"/>
     </row>
     <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="21"/>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="38"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="38"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="37" t="s">
+      <c r="T8" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="38"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="31"/>
       <c r="X8" s="21"/>
-      <c r="Y8" s="37" t="s">
+      <c r="Y8" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="38"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="31"/>
     </row>
     <row r="9" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="21"/>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="38"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="38"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="31"/>
       <c r="S9" s="21"/>
-      <c r="T9" s="37" t="s">
+      <c r="T9" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="38"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="31"/>
       <c r="X9" s="21"/>
-      <c r="Y9" s="37" t="s">
+      <c r="Y9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="38"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="31"/>
     </row>
     <row r="10" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="21"/>
@@ -2960,33 +2963,33 @@
       <c r="G10" s="13"/>
       <c r="H10" s="22"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="38"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="38"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="31"/>
       <c r="S10" s="21"/>
-      <c r="T10" s="47" t="s">
+      <c r="T10" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="48"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="36"/>
       <c r="X10" s="21"/>
-      <c r="Y10" s="37" t="s">
+      <c r="Y10" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="38"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="31"/>
     </row>
     <row r="11" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="21"/>
@@ -2995,31 +2998,31 @@
       <c r="G11" s="13"/>
       <c r="H11" s="22"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="37" t="s">
+      <c r="O11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="38"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31"/>
       <c r="S11" s="21"/>
-      <c r="T11" s="37" t="s">
+      <c r="T11" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="38"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="31"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="38"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="31"/>
     </row>
     <row r="12" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="21"/>
@@ -3028,19 +3031,19 @@
       <c r="G12" s="13"/>
       <c r="H12" s="22"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="25"/>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="38"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="31"/>
       <c r="S12" s="21"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
@@ -3059,19 +3062,19 @@
       <c r="G13" s="13"/>
       <c r="H13" s="22"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="21"/>
-      <c r="O13" s="37" t="s">
+      <c r="O13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="38"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="31"/>
       <c r="S13" s="21"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
@@ -3090,19 +3093,19 @@
       <c r="G14" s="13"/>
       <c r="H14" s="22"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="21"/>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="38"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="31"/>
       <c r="S14" s="21"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
@@ -3116,24 +3119,24 @@
     </row>
     <row r="15" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="21"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="21"/>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="37" t="s">
+      <c r="O15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="38"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="31"/>
       <c r="S15" s="21"/>
       <c r="T15" s="39"/>
       <c r="U15" s="39"/>
@@ -3157,12 +3160,12 @@
       <c r="L16" s="13"/>
       <c r="M16" s="22"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="37" t="s">
+      <c r="O16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="38"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="31"/>
       <c r="S16" s="21"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
@@ -3186,12 +3189,12 @@
       <c r="L17" s="13"/>
       <c r="M17" s="22"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="37" t="s">
+      <c r="O17" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="38"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="31"/>
       <c r="S17" s="21"/>
       <c r="T17" s="19"/>
       <c r="U17" s="19"/>
@@ -3215,12 +3218,12 @@
       <c r="L18" s="13"/>
       <c r="M18" s="22"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="37" t="s">
+      <c r="O18" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="38"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="31"/>
       <c r="S18" s="21"/>
       <c r="T18" s="19"/>
       <c r="U18" s="19"/>
@@ -3244,12 +3247,12 @@
       <c r="L19" s="13"/>
       <c r="M19" s="22"/>
       <c r="N19" s="25"/>
-      <c r="O19" s="37" t="s">
+      <c r="O19" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="38"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="31"/>
       <c r="S19" s="21"/>
       <c r="T19" s="19"/>
       <c r="U19" s="19"/>
@@ -3273,12 +3276,12 @@
       <c r="L20" s="13"/>
       <c r="M20" s="22"/>
       <c r="N20" s="25"/>
-      <c r="O20" s="37" t="s">
+      <c r="O20" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="38"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="31"/>
       <c r="S20" s="21"/>
       <c r="T20" s="19"/>
       <c r="U20" s="19"/>
@@ -3302,12 +3305,12 @@
       <c r="L21" s="13"/>
       <c r="M21" s="22"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="37" t="s">
+      <c r="O21" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="38"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="31"/>
       <c r="S21" s="21"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
@@ -3331,12 +3334,12 @@
       <c r="L22" s="13"/>
       <c r="M22" s="22"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="37" t="s">
+      <c r="O22" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="38"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="31"/>
       <c r="S22" s="21"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
@@ -3360,12 +3363,12 @@
       <c r="L23" s="14"/>
       <c r="M23" s="23"/>
       <c r="N23" s="25"/>
-      <c r="O23" s="37" t="s">
+      <c r="O23" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="38"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="31"/>
       <c r="S23" s="21"/>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
@@ -3378,39 +3381,39 @@
       <c r="AB23" s="29"/>
     </row>
     <row r="24" spans="1:28" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="D24" s="44" t="s">
+      <c r="B24" s="38"/>
+      <c r="D24" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="44" t="s">
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="46"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="34"/>
     </row>
     <row r="25" spans="1:28" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
@@ -3438,10 +3441,10 @@
     <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M26" s="7"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -3451,10 +3454,10 @@
     <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M27" s="7"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -3462,10 +3465,10 @@
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="12"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -3491,8 +3494,8 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="5"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
     </row>
     <row r="30" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
@@ -3606,42 +3609,17 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="X24:AB24"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="S4:W4"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="T15:W15"/>
@@ -3658,17 +3636,42 @@
     <mergeCell ref="O13:R13"/>
     <mergeCell ref="O14:R14"/>
     <mergeCell ref="O8:R8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="X24:AB24"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:AB6">
     <cfRule type="expression" dxfId="1" priority="7">
